--- a/NNLal/Ortho/NNLal-Blood Tests.xlsx
+++ b/NNLal/Ortho/NNLal-Blood Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmrab\Documents\Mediical-Versioned\Medical\NNLal\Ortho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865CF43E-E67C-4F50-BED4-CD041AF7D92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471F3C5-7C07-44B5-AD58-E3D2F1E23914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B15C91FB-BCD4-45A4-B98D-A806A97B7FD7}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Narendra Nath Lal</t>
   </si>
@@ -136,13 +130,37 @@
   </si>
   <si>
     <t>Creatinine</t>
+  </si>
+  <si>
+    <t>Normocytic Normochromic with microcytes</t>
+  </si>
+  <si>
+    <t>Mild eosinophilia</t>
+  </si>
+  <si>
+    <t>Normocytic Normochromic</t>
+  </si>
+  <si>
+    <t>Relative Eosinophilia</t>
+  </si>
+  <si>
+    <t>Vijaya</t>
+  </si>
+  <si>
+    <t>Vijaya Home collection</t>
+  </si>
+  <si>
+    <t>Relief Hsp</t>
+  </si>
+  <si>
+    <t>Releif Hsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +195,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -188,12 +214,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,59 +271,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,437 +687,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5E36C-0F97-461E-9785-C619FB422437}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43959</v>
+      </c>
+      <c r="D3" s="2">
         <v>43982</v>
       </c>
-      <c r="C3" s="10">
-        <v>43959</v>
-      </c>
-      <c r="D3" s="10">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="E3" s="2">
+        <v>44027</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D6" s="4">
         <v>7.7</v>
       </c>
-      <c r="C5" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="E6" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
         <v>19</v>
       </c>
-      <c r="C7" s="4">
+      <c r="E8" s="5">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="F10" s="9">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4.37</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>36.1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9">
+        <v>75</v>
+      </c>
+      <c r="C13" s="9">
+        <v>74</v>
+      </c>
+      <c r="D13" s="10">
+        <v>79</v>
+      </c>
+      <c r="E13" s="9">
+        <v>79.7</v>
+      </c>
+      <c r="F13" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10">
+        <v>25.3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>26.1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9">
+        <v>35</v>
+      </c>
+      <c r="D15" s="9">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F15" s="9">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>17.7</v>
+      </c>
+      <c r="F16" s="9">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9">
+        <v>7200</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5700</v>
+      </c>
+      <c r="D17" s="9">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="9">
+        <v>7400</v>
+      </c>
+      <c r="F17" s="9">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9">
+        <v>59</v>
+      </c>
+      <c r="E19" s="9">
+        <v>58</v>
+      </c>
+      <c r="F19" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>7</v>
+      </c>
+      <c r="F21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9">
+        <v>3894</v>
+      </c>
+      <c r="E25" s="9">
+        <v>4292</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>1650</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1924</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <v>330</v>
+      </c>
+      <c r="E27" s="11">
+        <v>518</v>
+      </c>
+      <c r="F27" s="9">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <v>660</v>
+      </c>
+      <c r="E28" s="9">
+        <v>592</v>
+      </c>
+      <c r="F28" s="9">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9">
+        <v>270000</v>
+      </c>
+      <c r="C29" s="9">
+        <v>260000</v>
+      </c>
+      <c r="D29" s="9">
+        <v>160000</v>
+      </c>
+      <c r="E29" s="9">
+        <v>203000</v>
+      </c>
+      <c r="F29" s="9">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4.37</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
-        <v>34.5</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <v>79</v>
-      </c>
-      <c r="C12" s="6">
-        <v>74</v>
-      </c>
-      <c r="D12" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7">
-        <v>25.3</v>
-      </c>
-      <c r="C13" s="6">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B35" s="7">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7">
+        <v>16</v>
+      </c>
+      <c r="D35" s="7">
+        <v>27.61</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6600</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5700</v>
-      </c>
-      <c r="D16" s="6">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6">
-        <v>59</v>
-      </c>
-      <c r="C18" s="6">
-        <v>54</v>
-      </c>
-      <c r="D18" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="6">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="6">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="8">
         <v>1</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3894</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1650</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6">
-        <v>330</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="6">
-        <v>660</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="6">
-        <v>160000</v>
-      </c>
-      <c r="C28" s="6">
-        <v>260000</v>
-      </c>
-      <c r="D28" s="6">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8">
-        <v>27.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>16</v>
-      </c>
-      <c r="D34" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="D37" s="8">
         <v>0.9</v>
       </c>
-      <c r="C36" s="9">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0.7</v>
-      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/NNLal/Ortho/NNLal-Blood Tests.xlsx
+++ b/NNLal/Ortho/NNLal-Blood Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmrab\Documents\Mediical-Versioned\Medical\NNLal\Ortho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471F3C5-7C07-44B5-AD58-E3D2F1E23914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F49C5-B965-4A86-8EB0-6BC498D316A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B15C91FB-BCD4-45A4-B98D-A806A97B7FD7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Narendra Nath Lal</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Releif Hsp</t>
+  </si>
+  <si>
+    <t>Mild Absolute Eosinophilia</t>
+  </si>
+  <si>
+    <t>Normocytic Normochromic with anisocytosis</t>
   </si>
 </sst>
 </file>
@@ -169,35 +175,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -299,78 +305,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,615 +685,790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5E36C-0F97-461E-9785-C619FB422437}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="19">
         <v>43922</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="19">
         <v>43959</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="19">
         <v>43982</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="19">
         <v>44027</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="19">
         <v>44059</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="G3" s="19">
+        <v>44159</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>7.6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>7.2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>7.7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="8">
         <v>67</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>28</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>19</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="G8" s="8">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>9.9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>11.1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>11.1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>11.8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="H10" s="10">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>3.9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>4.2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>4.37</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>4.5199999999999996</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="G11" s="10">
+        <v>4.47</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>29</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>31</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>34.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>36.1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="G12" s="10">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H12" s="10">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>75</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>74</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>79</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>79.7</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="G13" s="10">
+        <v>82.3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>25</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>26</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>25.3</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>26.1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="G14" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="H14" s="10">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <v>33</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>35</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>32</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>32.700000000000003</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="G15" s="10">
+        <v>32.1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
         <v>17.600000000000001</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>17.7</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="G16" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>7200</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>5700</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>6600</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>7400</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>6100</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="G17" s="10">
+        <v>6300</v>
+      </c>
+      <c r="H17" s="10">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>60</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>54</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>59</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>58</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="G19" s="10">
+        <v>60</v>
+      </c>
+      <c r="H19" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>33</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>37</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>25</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>26</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="G20" s="10">
+        <v>23</v>
+      </c>
+      <c r="H20" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>5</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>7</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="G21" s="10">
+        <v>8</v>
+      </c>
+      <c r="H21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>6</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <v>8</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="G22" s="10">
+        <v>9</v>
+      </c>
+      <c r="H22" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>0</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
         <v>3894</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="10">
         <v>4292</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>3355</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="G25" s="10">
+        <v>3780</v>
+      </c>
+      <c r="H25" s="10">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
         <v>1650</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="10">
         <v>1924</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>1647</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="G26" s="10">
+        <v>1449</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
         <v>330</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>518</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>427</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="G27" s="10">
+        <v>504</v>
+      </c>
+      <c r="H27" s="10">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10">
         <v>660</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>592</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="10">
         <v>610</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="G28" s="10">
+        <v>567</v>
+      </c>
+      <c r="H28" s="10">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>270000</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="10">
         <v>260000</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>160000</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="10">
         <v>203000</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="10">
         <v>188000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="G29" s="10">
+        <v>157000</v>
+      </c>
+      <c r="H29" s="10">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="G31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="G32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
+      <c r="G33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="15">
         <v>24</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="15">
         <v>16</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="15">
         <v>27.61</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="23" t="s">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="18">
         <v>0.7</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="18">
         <v>1</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="18">
         <v>0.9</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
